--- a/00Temporal/La Delicia.xlsx
+++ b/00Temporal/La Delicia.xlsx
@@ -958,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1497,7 +1497,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
